--- a/7rmartSupermarket/src/main/resources/TestData.xlsx
+++ b/7rmartSupermarket/src/main/resources/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium New\7rmartSupermarket\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\Automation-Testing\7rmartSupermarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA5A42-827B-4D9B-AE74-B4E4DF554219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2ED935-42E1-469D-B8AC-938717A243E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4596" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPageTest" sheetId="1" r:id="rId1"/>
+    <sheet name="categorytest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -43,6 +44,12 @@
   </si>
   <si>
     <t>teser@abc</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>categorytest1</t>
   </si>
 </sst>
 </file>
@@ -106,10 +113,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,6 +413,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{2B9FB569-BFA4-481C-A66B-1629AD26CCE9}"/>
@@ -417,4 +428,25 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEAF4E-79DE-492D-AAB0-7AF68A8F5EF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>